--- a/class_schedules_spring_2019/COMPARATIVE LITERATURE (CMPL).xlsx
+++ b/class_schedules_spring_2019/COMPARATIVE LITERATURE (CMPL).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="98">
   <si>
     <t>200</t>
   </si>
@@ -55,12 +55,21 @@
     <t>995F</t>
   </si>
   <si>
+    <t>995</t>
+  </si>
+  <si>
     <t>995H</t>
   </si>
   <si>
     <t>01</t>
   </si>
   <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
     <t>12983</t>
   </si>
   <si>
@@ -94,15 +103,27 @@
     <t>14669</t>
   </si>
   <si>
+    <t>18183</t>
+  </si>
+  <si>
     <t>8541</t>
   </si>
   <si>
+    <t>18185</t>
+  </si>
+  <si>
     <t>17310</t>
   </si>
   <si>
+    <t>17747</t>
+  </si>
+  <si>
     <t>17309</t>
   </si>
   <si>
+    <t>17748</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
@@ -112,103 +133,139 @@
     <t>F</t>
   </si>
   <si>
-    <t>Intro Comparative Literature MWF</t>
-  </si>
-  <si>
-    <t>Plot &amp; Structure TR</t>
+    <t>MWF</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>0900</t>
+  </si>
+  <si>
+    <t>MW</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>Senior</t>
+  </si>
+  <si>
+    <t>Intro Comparative Literature</t>
+  </si>
+  <si>
+    <t>Plot &amp; Structure</t>
   </si>
   <si>
     <t>Gender in Middle Eastern Lit MWF</t>
   </si>
   <si>
-    <t>Introduction to Translation TR</t>
-  </si>
-  <si>
-    <t>Anglophone Postcolonial Lits TR</t>
-  </si>
-  <si>
-    <t>Elena Ferrante MW</t>
-  </si>
-  <si>
-    <t>Relg Disenchant 20th-cent Lit M</t>
-  </si>
-  <si>
-    <t>Advanced Poetry Translation TR</t>
-  </si>
-  <si>
-    <t>The French Joyce MF</t>
-  </si>
-  <si>
-    <t>French Joyce LxC M</t>
-  </si>
-  <si>
-    <t>Senior Capstone</t>
+    <t>Introduction to Translation</t>
+  </si>
+  <si>
+    <t>Anglophone Postcolonial Lits</t>
+  </si>
+  <si>
+    <t>Elena Ferrante</t>
+  </si>
+  <si>
+    <t>Relg Disenchant 20th cent Lit</t>
+  </si>
+  <si>
+    <t>Advanced Poetry Translation</t>
+  </si>
+  <si>
+    <t>The French Joyce</t>
+  </si>
+  <si>
+    <t>French Joyce LxC</t>
   </si>
   <si>
     <t>Honors</t>
   </si>
   <si>
-    <t>Private Reading -</t>
-  </si>
-  <si>
-    <t>0330-0420pm</t>
-  </si>
-  <si>
-    <t>0830-0950am</t>
-  </si>
-  <si>
-    <t>0900-0950am</t>
-  </si>
-  <si>
-    <t>0930-1050am</t>
-  </si>
-  <si>
-    <t>0230-0420pm</t>
-  </si>
-  <si>
-    <t>0700-0900pm</t>
-  </si>
-  <si>
-    <t>0300-0415pm</t>
-  </si>
-  <si>
-    <t>0930-1045am</t>
-  </si>
-  <si>
-    <t>0230-0345pm</t>
+    <t>Private Reading</t>
+  </si>
+  <si>
+    <t>0330</t>
+  </si>
+  <si>
+    <t>0830</t>
+  </si>
+  <si>
+    <t>0950am</t>
+  </si>
+  <si>
+    <t>0930</t>
+  </si>
+  <si>
+    <t>0230</t>
+  </si>
+  <si>
+    <t>0700</t>
+  </si>
+  <si>
+    <t>0300</t>
+  </si>
+  <si>
+    <t>Capstone</t>
   </si>
   <si>
     <t>Project</t>
   </si>
   <si>
+    <t>0420pm</t>
+  </si>
+  <si>
+    <t>PETE</t>
+  </si>
+  <si>
+    <t>1050am</t>
+  </si>
+  <si>
+    <t>0900pm</t>
+  </si>
+  <si>
+    <t>0415pm</t>
+  </si>
+  <si>
+    <t>1045am</t>
+  </si>
+  <si>
+    <t>0345pm</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
     <t>Full</t>
   </si>
   <si>
     <t>Half</t>
   </si>
   <si>
-    <t>PETE</t>
-  </si>
-  <si>
     <t>KING</t>
   </si>
   <si>
+    <t>104</t>
+  </si>
+  <si>
     <t>SEVE</t>
   </si>
   <si>
     <t>MUDD</t>
   </si>
   <si>
-    <t>TBA</t>
-  </si>
-  <si>
     <t>130</t>
   </si>
   <si>
     <t>325</t>
   </si>
   <si>
-    <t>104</t>
+    <t>Al</t>
   </si>
   <si>
     <t>101</t>
@@ -229,16 +286,19 @@
     <t>202</t>
   </si>
   <si>
+    <t>Deppman John</t>
+  </si>
+  <si>
+    <t>Milkova Stiliana</t>
+  </si>
+  <si>
     <t>O'Connor Patrick</t>
   </si>
   <si>
     <t>Barton Emily</t>
   </si>
   <si>
-    <t>Al-Raba'a Amanda</t>
-  </si>
-  <si>
-    <t>Milkova Stiliana</t>
+    <t>Raba'a Amanda</t>
   </si>
   <si>
     <t>Needham Anuradha</t>
@@ -248,9 +308,6 @@
   </si>
   <si>
     <t>Harrison DeSales</t>
-  </si>
-  <si>
-    <t>Deppman John</t>
   </si>
 </sst>
 </file>
@@ -608,13 +665,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -645,8 +702,14 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -654,34 +717,40 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -689,34 +758,40 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>77</v>
+      </c>
+      <c r="L3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -724,34 +799,40 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>78</v>
+      </c>
+      <c r="L4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -759,34 +840,40 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -794,34 +881,40 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -829,34 +922,40 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J7" t="s">
         <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -864,34 +963,40 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I8" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>77</v>
+      </c>
+      <c r="L8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -899,34 +1004,40 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="J9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>79</v>
+      </c>
+      <c r="L9" t="s">
+        <v>88</v>
+      </c>
+      <c r="M9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -934,34 +1045,40 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>68</v>
+      </c>
+      <c r="L10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -969,34 +1086,40 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>80</v>
+      </c>
+      <c r="L11" t="s">
+        <v>89</v>
+      </c>
+      <c r="M11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1004,136 +1127,282 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H12" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>74</v>
+      </c>
+      <c r="L12" t="s">
+        <v>74</v>
+      </c>
+      <c r="M12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H13" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>74</v>
+      </c>
+      <c r="L13" t="s">
+        <v>74</v>
+      </c>
+      <c r="M13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J14" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="K14" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>74</v>
+      </c>
+      <c r="L14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
         <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="J15" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="L15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" t="s">
+        <v>74</v>
+      </c>
+      <c r="M16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" t="s">
+        <v>74</v>
+      </c>
+      <c r="L17" t="s">
+        <v>74</v>
+      </c>
+      <c r="M17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" t="s">
+        <v>74</v>
+      </c>
+      <c r="L18" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" t="s">
+        <v>74</v>
+      </c>
+      <c r="L19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
